--- a/학습자료/단답형/객관식_영어_복습_부정사 전치사 구분.xlsx
+++ b/학습자료/단답형/객관식_영어_복습_부정사 전치사 구분.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>object to [   ] : ~을 반대하다
-1. 동사원형
-2. 동사원형/동명사
-3. 동명사</t>
+1. 동명사
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>be opposed to [   ] : ~을 반대하다
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>lead 목적어 to [   ] : ~가 … 하도록 이끌다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동명사
+2. 동사원형/동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 동사원형/동명사</t>
+          <t>2, 동사원형/동명사</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>pay attention to [   ] : ~에 주의를 기울이다
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
@@ -540,8 +540,8 @@
         <is>
           <t>when it comes to [   ] : ~에 관해서라면
 1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,8 +554,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>in addition to [   ] : ~이외에도, ~뿐만 아니라
-1. 동사원형/동명사
-2. 동사원형
+1. 동사원형
+2. 동사원형/동명사
 3. 동명사</t>
         </is>
       </c>
@@ -569,8 +569,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>react to [   ] : ~에 반응하다
-1. 동사원형/동명사
-2. 동사원형
+1. 동사원형
+2. 동사원형/동명사
 3. 동명사</t>
         </is>
       </c>
@@ -584,9 +584,9 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>respond to [   ] : ~에 응답하다
-1. 동사원형/동명사
-2. 동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>belong to [   ] : ~에 속하다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -615,8 +615,8 @@
         <is>
           <t>reply to [   ] : ~에 대답하다
 1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>due to [   ] : ~ 때문에
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -645,13 +645,13 @@
         <is>
           <t>owing to [   ] : ~ 때문에
 1. 동사원형
-2. 동사원형/동명사
-3. 동명사</t>
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>thanks to [   ] : ~ 때문에
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -675,13 +675,13 @@
         <is>
           <t>contribute to [   ] : ~하는 것에 기여하다
 1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+2. 동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>owe A to [   ] : A는 ~한 덕분이다
-1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+1. 동명사
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>attribute A to [   ] : A는 ~한 덕분이다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -735,13 +735,13 @@
         <is>
           <t>add A to [   ] : ~하는 것에 A를 더하다
 1. 동사원형/동명사
-2. 동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -750,13 +750,13 @@
         <is>
           <t>prefer A to [   ] : ~하는 것보다 A를 더 좋아하다
 1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>devote A to [   ] : ~하는 것에 A를 바치다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -794,9 +794,9 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>A be dedicated to [   ] : A가 ~하는 것에 헌신하다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -810,8 +810,8 @@
         <is>
           <t>be exposed to [   ] : ~하는 것에 노출되다, 접하다
 1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>expose A to [   ] : A를 ~하는 것에 노출시키다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동명사
+2. 동사원형/동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>be used to [   ] : ~하는 것에 익숙하다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>be accustomed to [   ] : ~하는 것에 익숙하다
-1. 동명사
-2. 동사원형/동명사
+1. 동사원형/동명사
+2. 동명사
 3. 동사원형</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>what do you say to [   ] ? :  ~(하는 게) 어때?
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>be tied to [   ] : ~하는 것과 관련되다
-1. 동사원형/동명사
-2. 동명사
+1. 동명사
+2. 동사원형/동명사
 3. 동사원형</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>A be preferable to [   ] : A는 ~하는 것보다 낫다
-1. 동사원형
-2. 동명사
+1. 동명사
+2. 동사원형
 3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>1, 동명사</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>come near to [   ] : 하마터면 ~할 뻔하다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>be about to [   ] : 막 ~하려 하다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동명사
+2. 동사원형/동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>3, 동사원형</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>be apt to [   ] : ~하는 경향이 있다
-1. 동사원형
-2. 동사원형/동명사
+1. 동사원형/동명사
+2. 동사원형
 3. 동명사</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>be free to [   ] : 자유로이 ~하다
-1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>be likely to [   ] : ~할 것 같다
-1. 동사원형
-2. 동사원형/동명사
-3. 동명사</t>
+1. 동명사
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>be sure to [   ] : 반드시 ~하다
-1. 동사원형
-2. 동명사
+1. 동명사
+2. 동사원형
 3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1035,8 +1035,8 @@
         <is>
           <t>cannot but [   ] : ~하지 않을 수 없다
 1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>cannot help [   ] : ~하지 않을 수 없다
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>cannot help but [   ] : ~하지 않을 수 없다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>can't refrain from [   ] : ~하지 않을 수 없다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -1109,9 +1109,9 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>enough to [   ] : ~할 정도로 충분히 ~한
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1139,9 +1139,9 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>have no choice but to [   ] : ~하지 않을 수 없다
-1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+1. 동명사
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1155,13 +1155,13 @@
         <is>
           <t>in order to [   ] : ~하기 위해
 1. 동사원형/동명사
-2. 동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>so as to [   ] : ~하기 위해
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>so ~ as to [   ] : 매우 ~해서 ~하다
-1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+1. 동명사
+2. 동사원형/동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>3, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>too ~ to [   ] : 너무 ~해서 ~할 수 없는
-1. 동사원형/동명사
-2. 동사원형
+1. 동사원형
+2. 동사원형/동명사
 3. 동명사</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>used to [   ] : ~하곤 했다
-1. 동사원형
-2. 동사원형/동명사
+1. 동사원형/동명사
+2. 동사원형
 3. 동명사</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>would rather [   ] : 오히려 ~하고 싶다
-1. 동사원형/동명사
-2. 동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1244,8 +1244,8 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>be the last man to [   ] : ~할 사람이 아니다
-1. 동사원형/동명사
-2. 동명사
+1. 동명사
+2. 동사원형/동명사
 3. 동사원형</t>
         </is>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>be cut out to [   ] : ~에 적임이다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>come to [   ] : ~하게 되다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1305,13 +1305,13 @@
         <is>
           <t>be on the verge of [   ] : 막 ~하려 하다
 1. 동사원형
-2. 동사원형/동명사
-3. 동명사</t>
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3, 동명사</t>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>be on the point of [   ] : 막 ~하려 하다
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>be apt to [   ] : ~하는 경향이 있다
-1. 동명사
-2. 동사원형
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>3, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1364,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>be likely to [   ] : ~할 것 같다
-1. 동사원형
-2. 동사원형/동명사
+1. 동사원형/동명사
+2. 동사원형
 3. 동명사</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1395,8 +1395,8 @@
         <is>
           <t>be sure to [   ] : 반드시 ~하다
 1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1424,14 +1424,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>cannot but [   ] : ~하지 않을 수 없다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1439,14 +1439,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>cannot help [   ] : ~하지 않을 수 없다
-1. 동사원형/동명사
-2. 동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -1455,13 +1455,13 @@
         <is>
           <t>cannot help but [   ] : ~하지 않을 수 없다
 1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1499,9 +1499,9 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>enough to [   ] : ~할 정도로 충분히 ~한
-1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+1. 동명사
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1514,14 +1514,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>had better [   ] : ~하는 것이 더 낫다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1529,14 +1529,14 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>have no choice but to [   ] : ~하지 않을 수 없다
-1. 동사원형/동명사
-2. 동사원형
+1. 동사원형
+2. 동사원형/동명사
 3. 동명사</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1560,13 +1560,13 @@
         <is>
           <t>so as to [   ] : ~하기 위해
 1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+2. 동사원형
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1574,14 +1574,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>so ~ as to [   ] : 매우 ~해서 ~하다
-1. 동사원형/동명사
-2. 동사원형
+1. 동사원형
+2. 동사원형/동명사
 3. 동명사</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1590,13 +1590,13 @@
         <is>
           <t>too ~ to [   ] : 너무 ~해서 ~할 수 없는
 1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+2. 동명사
+3. 동사원형</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>3, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>used to [   ] : ~하곤 했다
-1. 동사원형
-2. 동명사
+1. 동명사
+2. 동사원형
 3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1619,14 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>would rather [   ] : 오히려 ~하고 싶다
-1. 동사원형/동명사
-2. 동사원형
-3. 동명사</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1634,14 +1634,14 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>be the last man to [   ] : ~할 사람이 아니다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동명사
+3. 동사원형/동명사</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3, 동사원형</t>
+          <t>1, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1649,8 +1649,8 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>be cut out to [   ] : ~에 적임이다
-1. 동사원형/동명사
-2. 동명사
+1. 동명사
+2. 동사원형/동명사
 3. 동사원형</t>
         </is>
       </c>
@@ -1664,14 +1664,14 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>come to [   ] : ~하게 되다
-1. 동사원형
-2. 동명사
-3. 동사원형/동명사</t>
+1. 동사원형/동명사
+2. 동사원형
+3. 동명사</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1, 동사원형</t>
+          <t>2, 동사원형</t>
         </is>
       </c>
     </row>
@@ -1679,14 +1679,14 @@
       <c r="A84" t="inlineStr">
         <is>
           <t>keep 목적어 from [   ] : 막다
-1. 동명사
-2. 동사원형/동명사
-3. 동사원형</t>
+1. 동사원형
+2. 동사원형/동명사
+3. 동명사</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1, 동명사</t>
+          <t>3, 동명사</t>
         </is>
       </c>
     </row>
@@ -1702,6 +1702,21 @@
       <c r="B85" t="inlineStr">
         <is>
           <t>3, 동명사</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>look forward to [   ] : ~하는 것을 기대하다
+1. 동사원형/동명사
+2. 동명사
+3. 동사원형</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2, 동명사</t>
         </is>
       </c>
     </row>
